--- a/bd/producto.xlsx
+++ b/bd/producto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,69 @@
           <t>id_categoria</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>imagen_url</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Camiseta mallada</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>AAAAAAAAAAAAAAAAAA</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>165777</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>img/producto_1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Camisetaaaa</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Damn</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>345342234</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>img/producto_2.jpg</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bd/producto.xlsx
+++ b/bd/producto.xlsx
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bd/producto.xlsx
+++ b/bd/producto.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AAAAAAAAAAAAAAAAAA</t>
+          <t>YO SOY TU PADRE</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -553,7 +553,7 @@
           <t>img/producto_3.jpg</t>
         </is>
       </c>
-      <c r="H4" t="b">
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
